--- a/Results/Complete_Backtest/Weights/all_weights.xlsx
+++ b/Results/Complete_Backtest/Weights/all_weights.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
-    <t>Unnamed: 0</t>
+    <t xml:space="preserve">Unnamed: 0</t>
   </si>
   <si>
     <t>BNB</t>
@@ -295,21 +294,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <name val="Calibri"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Calibri"/>
       <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -346,11 +343,11 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -358,11 +355,16 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -408,13 +410,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -442,13 +444,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -645,15 +647,228 @@
 </a:theme>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U73"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col bestFit="1" min="2" max="2" width="19.140625"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -715,7 +930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -723,19 +938,19 @@
         <v>20</v>
       </c>
       <c r="C2">
-        <v>0.234</v>
+        <v>0.69599999999999995</v>
       </c>
       <c r="D2">
-        <v>0.22</v>
+        <v>0.014</v>
       </c>
       <c r="E2">
-        <v>0.528</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F2">
-        <v>0.018</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -743,19 +958,19 @@
         <v>21</v>
       </c>
       <c r="C3">
-        <v>0.272</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="D3">
-        <v>0.118</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="E3">
-        <v>0.606</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="F3">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>0.48399999999999999</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -775,7 +990,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="1:21">
+    <row r="5">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -783,19 +998,19 @@
         <v>23</v>
       </c>
       <c r="C5">
-        <v>0.1728</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="D5">
         <v>0.2092</v>
       </c>
       <c r="E5">
-        <v>0.4813</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="F5">
-        <v>0.1367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>0.13669999999999999</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -803,31 +1018,31 @@
         <v>24</v>
       </c>
       <c r="G6">
-        <v>0.354</v>
+        <v>0.085999999999999993</v>
       </c>
       <c r="H6">
-        <v>0.014</v>
+        <v>0.186</v>
       </c>
       <c r="I6">
-        <v>0.228</v>
+        <v>0.071999999999999995</v>
       </c>
       <c r="J6">
-        <v>0.002</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="K6">
-        <v>0.06</v>
+        <v>0.089999999999999997</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.037999999999999999</v>
       </c>
       <c r="M6">
-        <v>0.022</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="N6">
-        <v>0.32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>0.10199999999999999</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="1">
         <v>1</v>
       </c>
@@ -835,31 +1050,31 @@
         <v>25</v>
       </c>
       <c r="G7">
-        <v>0.532</v>
+        <v>0.014</v>
       </c>
       <c r="H7">
-        <v>0.028</v>
+        <v>0.012</v>
       </c>
       <c r="I7">
-        <v>0.064</v>
+        <v>0.13600000000000001</v>
       </c>
       <c r="J7">
-        <v>0.034</v>
+        <v>0.012</v>
       </c>
       <c r="K7">
-        <v>0.012</v>
+        <v>0.71399999999999997</v>
       </c>
       <c r="L7">
-        <v>0.122</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="M7">
-        <v>0.014</v>
+        <v>0.024</v>
       </c>
       <c r="N7">
-        <v>0.194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="1">
         <v>2</v>
       </c>
@@ -891,7 +1106,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="9" spans="1:21">
+    <row r="9">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -899,31 +1114,31 @@
         <v>27</v>
       </c>
       <c r="G9">
-        <v>0.07969999999999999</v>
+        <v>0.079699999999999993</v>
       </c>
       <c r="H9">
-        <v>0.1301</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="I9">
-        <v>0.1445</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="J9">
-        <v>0.06850000000000001</v>
+        <v>0.068500000000000005</v>
       </c>
       <c r="K9">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="L9">
-        <v>0.053</v>
+        <v>0.052999999999999999</v>
       </c>
       <c r="M9">
-        <v>0.1156</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="N9">
-        <v>0.1476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>0.14760000000000001</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -931,31 +1146,31 @@
         <v>28</v>
       </c>
       <c r="D10">
-        <v>0.238</v>
+        <v>0.045999999999999999</v>
       </c>
       <c r="E10">
-        <v>0.346</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="F10">
-        <v>0.062</v>
+        <v>0.012</v>
       </c>
       <c r="O10">
-        <v>0.022</v>
+        <v>0.01</v>
       </c>
       <c r="P10">
-        <v>0.08</v>
+        <v>0.33200000000000002</v>
       </c>
       <c r="Q10">
-        <v>0.012</v>
+        <v>0.314</v>
       </c>
       <c r="R10">
-        <v>0.13</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="S10">
-        <v>0.11</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>0.23999999999999999</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -963,31 +1178,31 @@
         <v>29</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="E11">
-        <v>0.398</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="F11">
-        <v>0.064</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="O11">
-        <v>0.124</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="P11">
-        <v>0.156</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="Q11">
-        <v>0.004</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="R11">
-        <v>0.04</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="S11">
-        <v>0.214</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="1">
         <v>2</v>
       </c>
@@ -1019,7 +1234,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:21">
+    <row r="13">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1027,31 +1242,31 @@
         <v>31</v>
       </c>
       <c r="D13">
-        <v>0.06850000000000001</v>
+        <v>0.068500000000000005</v>
       </c>
       <c r="E13">
-        <v>0.261</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="F13">
-        <v>0.1156</v>
+        <v>0.11559999999999999</v>
       </c>
       <c r="O13">
-        <v>0.07969999999999999</v>
+        <v>0.079699999999999993</v>
       </c>
       <c r="P13">
-        <v>0.1301</v>
+        <v>0.13009999999999999</v>
       </c>
       <c r="Q13">
-        <v>0.1445</v>
+        <v>0.14449999999999999</v>
       </c>
       <c r="R13">
-        <v>0.053</v>
+        <v>0.052999999999999999</v>
       </c>
       <c r="S13">
-        <v>0.1476</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>0.14760000000000001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1059,25 +1274,25 @@
         <v>32</v>
       </c>
       <c r="C14">
-        <v>0.124</v>
+        <v>0.056000000000000001</v>
       </c>
       <c r="D14">
-        <v>0.048</v>
+        <v>0.012</v>
       </c>
       <c r="E14">
-        <v>0.364</v>
+        <v>0.12</v>
       </c>
       <c r="F14">
-        <v>0.028</v>
+        <v>0.79000000000000004</v>
       </c>
       <c r="J14">
-        <v>0.376</v>
+        <v>0.01</v>
       </c>
       <c r="Q14">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="1">
         <v>1</v>
       </c>
@@ -1085,25 +1300,25 @@
         <v>33</v>
       </c>
       <c r="C15">
-        <v>0.076</v>
+        <v>0.034000000000000002</v>
       </c>
       <c r="D15">
-        <v>0.052</v>
+        <v>0.79600000000000004</v>
       </c>
       <c r="E15">
-        <v>0.592</v>
+        <v>0.016</v>
       </c>
       <c r="F15">
-        <v>0.01</v>
+        <v>0.106</v>
       </c>
       <c r="J15">
-        <v>0.194</v>
+        <v>0.035999999999999997</v>
       </c>
       <c r="Q15">
-        <v>0.076</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="1">
         <v>2</v>
       </c>
@@ -1111,25 +1326,25 @@
         <v>34</v>
       </c>
       <c r="C16">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="D16">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="E16">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F16">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="J16">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Q16">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -1146,16 +1361,16 @@
         <v>0.1545</v>
       </c>
       <c r="F17">
-        <v>0.06660000000000001</v>
+        <v>0.066600000000000006</v>
       </c>
       <c r="J17">
-        <v>0.1629</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="Q17">
-        <v>0.3749</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>0.37490000000000001</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1163,19 +1378,19 @@
         <v>36</v>
       </c>
       <c r="D18">
-        <v>0.35</v>
+        <v>0.075999999999999998</v>
       </c>
       <c r="F18">
-        <v>0.346</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="O18">
-        <v>0.178</v>
+        <v>0.106</v>
       </c>
       <c r="R18">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1183,19 +1398,19 @@
         <v>37</v>
       </c>
       <c r="D19">
-        <v>0.408</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="F19">
-        <v>0.258</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="O19">
-        <v>0.17</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="R19">
-        <v>0.164</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>0.48999999999999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="1">
         <v>2</v>
       </c>
@@ -1215,7 +1430,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21">
       <c r="A21" s="1">
         <v>3</v>
       </c>
@@ -1223,19 +1438,19 @@
         <v>39</v>
       </c>
       <c r="D21">
-        <v>0.3077</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="F21">
-        <v>0.162</v>
+        <v>0.16200000000000001</v>
       </c>
       <c r="O21">
-        <v>0.1886</v>
+        <v>0.18859999999999999</v>
       </c>
       <c r="R21">
         <v>0.3417</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -1243,31 +1458,31 @@
         <v>40</v>
       </c>
       <c r="C22">
-        <v>0.132</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="D22">
-        <v>0.046</v>
+        <v>0.098000000000000004</v>
       </c>
       <c r="E22">
-        <v>0.368</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="F22">
-        <v>0.012</v>
+        <v>0.075999999999999998</v>
       </c>
       <c r="J22">
-        <v>0.074</v>
+        <v>0.016</v>
       </c>
       <c r="K22">
-        <v>0.012</v>
+        <v>0.024</v>
       </c>
       <c r="Q22">
-        <v>0.052</v>
+        <v>0.042000000000000003</v>
       </c>
       <c r="T22">
-        <v>0.304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -1275,31 +1490,31 @@
         <v>41</v>
       </c>
       <c r="C23">
-        <v>0.01</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="D23">
-        <v>0.04</v>
+        <v>0.13</v>
       </c>
       <c r="E23">
-        <v>0.188</v>
+        <v>0.014</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>0.19400000000000001</v>
       </c>
       <c r="J23">
-        <v>0.004</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="K23">
-        <v>0.038</v>
+        <v>0.012</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>0.012</v>
       </c>
       <c r="T23">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
+        <v>0.124</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1331,7 +1546,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25">
       <c r="A25" s="1">
         <v>3</v>
       </c>
@@ -1345,25 +1560,25 @@
         <v>0.0504</v>
       </c>
       <c r="E25">
-        <v>0.1259</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="F25">
-        <v>0.118</v>
+        <v>0.11799999999999999</v>
       </c>
       <c r="J25">
-        <v>0.2835</v>
+        <v>0.28349999999999997</v>
       </c>
       <c r="K25">
         <v>0.1168</v>
       </c>
       <c r="Q25">
-        <v>0.0805</v>
+        <v>0.080500000000000002</v>
       </c>
       <c r="T25">
         <v>0.1018</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -1371,19 +1586,19 @@
         <v>44</v>
       </c>
       <c r="G26">
-        <v>0.484</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="H26">
-        <v>0.076</v>
+        <v>0.71199999999999997</v>
       </c>
       <c r="I26">
-        <v>0.434</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="M26">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -1391,19 +1606,19 @@
         <v>45</v>
       </c>
       <c r="G27">
-        <v>0.666</v>
+        <v>0.45000000000000001</v>
       </c>
       <c r="H27">
-        <v>0.014</v>
+        <v>0.378</v>
       </c>
       <c r="I27">
-        <v>0.28</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="M27">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="28" spans="1:20">
+        <v>0.112</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="1">
         <v>2</v>
       </c>
@@ -1423,7 +1638,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29">
       <c r="A29" s="1">
         <v>3</v>
       </c>
@@ -1431,19 +1646,19 @@
         <v>47</v>
       </c>
       <c r="G29">
-        <v>0.1886</v>
+        <v>0.18859999999999999</v>
       </c>
       <c r="H29">
-        <v>0.3077</v>
+        <v>0.30769999999999997</v>
       </c>
       <c r="I29">
         <v>0.3417</v>
       </c>
       <c r="M29">
-        <v>0.162</v>
-      </c>
-    </row>
-    <row r="30" spans="1:20">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -1451,31 +1666,31 @@
         <v>48</v>
       </c>
       <c r="G30">
-        <v>0.76</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="H30">
-        <v>0.116</v>
+        <v>0.40999999999999998</v>
       </c>
       <c r="I30">
+        <v>0.114</v>
+      </c>
+      <c r="L30">
         <v>0.01</v>
       </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
       <c r="M30">
-        <v>0.034</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="N30">
-        <v>0.07199999999999999</v>
+        <v>0.224</v>
       </c>
       <c r="R30">
-        <v>0.002</v>
+        <v>0.071999999999999995</v>
       </c>
       <c r="S30">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -1483,31 +1698,31 @@
         <v>49</v>
       </c>
       <c r="G31">
-        <v>0.912</v>
+        <v>0.050000000000000003</v>
       </c>
       <c r="H31">
-        <v>0.044</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="I31">
-        <v>0.004</v>
+        <v>0.57199999999999995</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>0.14999999999999999</v>
       </c>
       <c r="M31">
-        <v>0.016</v>
+        <v>0.02</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.096000000000000002</v>
       </c>
       <c r="R31">
-        <v>0.002</v>
+        <v>0.053999999999999999</v>
       </c>
       <c r="S31">
-        <v>0.022</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="1">
         <v>2</v>
       </c>
@@ -1539,7 +1754,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="33" spans="1:21">
+    <row r="33">
       <c r="A33" s="1">
         <v>3</v>
       </c>
@@ -1553,25 +1768,25 @@
         <v>0.1232</v>
       </c>
       <c r="I33">
-        <v>0.2835</v>
+        <v>0.28349999999999997</v>
       </c>
       <c r="L33">
-        <v>0.0805</v>
+        <v>0.080500000000000002</v>
       </c>
       <c r="M33">
         <v>0.1168</v>
       </c>
       <c r="N33">
-        <v>0.1259</v>
+        <v>0.12590000000000001</v>
       </c>
       <c r="R33">
         <v>0.0504</v>
       </c>
       <c r="S33">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>0.11799999999999999</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -1579,31 +1794,31 @@
         <v>52</v>
       </c>
       <c r="F34">
-        <v>0.146</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="M34">
-        <v>0.036</v>
+        <v>0.01</v>
       </c>
       <c r="O34">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="P34">
         <v>0.012</v>
       </c>
-      <c r="P34">
-        <v>0.032</v>
-      </c>
       <c r="Q34">
-        <v>0.06</v>
+        <v>0.41999999999999998</v>
       </c>
       <c r="S34">
-        <v>0.246</v>
+        <v>0.02</v>
       </c>
       <c r="T34">
-        <v>0.462</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="U34">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="1">
         <v>1</v>
       </c>
@@ -1611,31 +1826,31 @@
         <v>53</v>
       </c>
       <c r="F35">
+        <v>0.028000000000000001</v>
+      </c>
+      <c r="M35">
+        <v>0.032000000000000001</v>
+      </c>
+      <c r="O35">
         <v>0.01</v>
       </c>
-      <c r="M35">
-        <v>0.096</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
       <c r="P35">
-        <v>0.12</v>
+        <v>0.01</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>0.043999999999999997</v>
       </c>
       <c r="S35">
-        <v>0.388</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="T35">
-        <v>0.386</v>
+        <v>0.34200000000000003</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>0.504</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="1">
         <v>2</v>
       </c>
@@ -1667,7 +1882,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="37" spans="1:21">
+    <row r="37">
       <c r="A37" s="1">
         <v>3</v>
       </c>
@@ -1675,31 +1890,31 @@
         <v>55</v>
       </c>
       <c r="F37">
-        <v>0.0678</v>
+        <v>0.067799999999999999</v>
       </c>
       <c r="M37">
-        <v>0.3442</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="O37">
-        <v>0.1349</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="P37">
-        <v>0.0727</v>
+        <v>0.072700000000000001</v>
       </c>
       <c r="Q37">
-        <v>0.0895</v>
+        <v>0.089499999999999996</v>
       </c>
       <c r="S37">
-        <v>0.143</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="T37">
-        <v>0.06909999999999999</v>
+        <v>0.069099999999999995</v>
       </c>
       <c r="U37">
-        <v>0.0789</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>0.078899999999999998</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -1707,25 +1922,25 @@
         <v>56</v>
       </c>
       <c r="M38">
-        <v>0.014</v>
+        <v>0.028000000000000001</v>
       </c>
       <c r="O38">
-        <v>0.068</v>
+        <v>0.02</v>
       </c>
       <c r="P38">
-        <v>0.212</v>
+        <v>0.016</v>
       </c>
       <c r="Q38">
-        <v>0.01</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="T38">
-        <v>0.668</v>
+        <v>0.068000000000000005</v>
       </c>
       <c r="U38">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="1">
         <v>1</v>
       </c>
@@ -1733,25 +1948,25 @@
         <v>57</v>
       </c>
       <c r="M39">
-        <v>0.042</v>
+        <v>0.024</v>
       </c>
       <c r="O39">
-        <v>0.056</v>
+        <v>0.098000000000000004</v>
       </c>
       <c r="P39">
-        <v>0.162</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="Q39">
-        <v>0.018</v>
+        <v>0.41799999999999998</v>
       </c>
       <c r="T39">
-        <v>0.664</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="U39">
-        <v>0.058</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>0.376</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="1">
         <v>2</v>
       </c>
@@ -1759,25 +1974,25 @@
         <v>58</v>
       </c>
       <c r="M40">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="O40">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="P40">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Q40">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="T40">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="U40">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1785,25 +2000,25 @@
         <v>59</v>
       </c>
       <c r="M41">
-        <v>0.4361</v>
+        <v>0.43609999999999999</v>
       </c>
       <c r="O41">
         <v>0.1709</v>
       </c>
       <c r="P41">
-        <v>0.0921</v>
+        <v>0.092100000000000001</v>
       </c>
       <c r="Q41">
         <v>0.1134</v>
       </c>
       <c r="T41">
-        <v>0.08749999999999999</v>
+        <v>0.087499999999999994</v>
       </c>
       <c r="U41">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -1811,25 +2026,25 @@
         <v>60</v>
       </c>
       <c r="H42">
-        <v>0.1667</v>
+        <v>0.02</v>
       </c>
       <c r="I42">
-        <v>0.1667</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="M42">
-        <v>0.1667</v>
+        <v>0.30599999999999999</v>
       </c>
       <c r="N42">
-        <v>0.1667</v>
+        <v>0.024</v>
       </c>
       <c r="R42">
-        <v>0.1667</v>
+        <v>0.432</v>
       </c>
       <c r="S42">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>0.16600000000000001</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="1">
         <v>1</v>
       </c>
@@ -1837,25 +2052,25 @@
         <v>61</v>
       </c>
       <c r="H43">
-        <v>0.1667</v>
+        <v>0.014</v>
       </c>
       <c r="I43">
-        <v>0.1667</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="M43">
-        <v>0.1667</v>
+        <v>0.032000000000000001</v>
       </c>
       <c r="N43">
-        <v>0.1667</v>
+        <v>0.012</v>
       </c>
       <c r="R43">
-        <v>0.1667</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="S43">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>0.52800000000000002</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="1">
         <v>2</v>
       </c>
@@ -1863,25 +2078,25 @@
         <v>62</v>
       </c>
       <c r="H44">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I44">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="M44">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="N44">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="R44">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="S44">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="1">
         <v>3</v>
       </c>
@@ -1892,10 +2107,10 @@
         <v>0.1346</v>
       </c>
       <c r="I45">
-        <v>0.1629</v>
+        <v>0.16289999999999999</v>
       </c>
       <c r="M45">
-        <v>0.3749</v>
+        <v>0.37490000000000001</v>
       </c>
       <c r="N45">
         <v>0.1545</v>
@@ -1904,10 +2119,10 @@
         <v>0.1065</v>
       </c>
       <c r="S45">
-        <v>0.06660000000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>0.066600000000000006</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="1">
         <v>0</v>
       </c>
@@ -1915,19 +2130,19 @@
         <v>64</v>
       </c>
       <c r="M46">
-        <v>0.152</v>
+        <v>0.01</v>
       </c>
       <c r="O46">
-        <v>0.212</v>
+        <v>0.46800000000000003</v>
       </c>
       <c r="P46">
-        <v>0.608</v>
+        <v>0.068000000000000005</v>
       </c>
       <c r="U46">
-        <v>0.028</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>0.45400000000000001</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="1">
         <v>1</v>
       </c>
@@ -1935,19 +2150,19 @@
         <v>65</v>
       </c>
       <c r="M47">
-        <v>0.082</v>
+        <v>0.034000000000000002</v>
       </c>
       <c r="O47">
-        <v>0.108</v>
+        <v>0.042000000000000003</v>
       </c>
       <c r="P47">
-        <v>0.796</v>
+        <v>0.014</v>
       </c>
       <c r="U47">
-        <v>0.014</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>0.91000000000000003</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="1">
         <v>2</v>
       </c>
@@ -1967,7 +2182,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="49" spans="1:21">
+    <row r="49">
       <c r="A49" s="1">
         <v>3</v>
       </c>
@@ -1975,19 +2190,19 @@
         <v>67</v>
       </c>
       <c r="M49">
-        <v>0.1985</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="O49">
-        <v>0.1886</v>
+        <v>0.18859999999999999</v>
       </c>
       <c r="P49">
-        <v>0.3684</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="U49">
         <v>0.2445</v>
       </c>
     </row>
-    <row r="50" spans="1:21">
+    <row r="50">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -1995,19 +2210,19 @@
         <v>68</v>
       </c>
       <c r="C50">
-        <v>0</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="G50">
-        <v>0.976</v>
+        <v>0.014</v>
       </c>
       <c r="J50">
-        <v>0.024</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="N50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>0.025999999999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="1">
         <v>1</v>
       </c>
@@ -2015,19 +2230,19 @@
         <v>69</v>
       </c>
       <c r="C51">
-        <v>0.018</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="G51">
-        <v>0.974</v>
+        <v>0.14399999999999999</v>
       </c>
       <c r="J51">
-        <v>0.002</v>
+        <v>0.53000000000000003</v>
       </c>
       <c r="N51">
-        <v>0.006</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="1">
         <v>2</v>
       </c>
@@ -2047,7 +2262,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="53" spans="1:21">
+    <row r="53">
       <c r="A53" s="1">
         <v>3</v>
       </c>
@@ -2055,19 +2270,19 @@
         <v>71</v>
       </c>
       <c r="C53">
-        <v>0.3684</v>
+        <v>0.36840000000000001</v>
       </c>
       <c r="G53">
-        <v>0.1886</v>
+        <v>0.18859999999999999</v>
       </c>
       <c r="J53">
-        <v>0.1985</v>
+        <v>0.19850000000000001</v>
       </c>
       <c r="N53">
         <v>0.2445</v>
       </c>
     </row>
-    <row r="54" spans="1:21">
+    <row r="54">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -2075,25 +2290,25 @@
         <v>72</v>
       </c>
       <c r="G54">
-        <v>0.518</v>
+        <v>0.048000000000000001</v>
       </c>
       <c r="H54">
-        <v>0.006</v>
+        <v>0.41399999999999998</v>
       </c>
       <c r="I54">
-        <v>0.246</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="K54">
-        <v>0.026</v>
+        <v>0.01</v>
       </c>
       <c r="L54">
-        <v>0.18</v>
+        <v>0.012</v>
       </c>
       <c r="M54">
-        <v>0.024</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="1">
         <v>1</v>
       </c>
@@ -2101,25 +2316,25 @@
         <v>73</v>
       </c>
       <c r="G55">
-        <v>0.738</v>
+        <v>0.084000000000000005</v>
       </c>
       <c r="H55">
-        <v>0.004</v>
+        <v>0.094</v>
       </c>
       <c r="I55">
-        <v>0.218</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="K55">
-        <v>0</v>
+        <v>0.051999999999999998</v>
       </c>
       <c r="L55">
-        <v>0.002</v>
+        <v>0.114</v>
       </c>
       <c r="M55">
-        <v>0.038</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="1">
         <v>2</v>
       </c>
@@ -2127,25 +2342,25 @@
         <v>74</v>
       </c>
       <c r="G56">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="H56">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I56">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="K56">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="L56">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="M56">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="1">
         <v>3</v>
       </c>
@@ -2156,22 +2371,22 @@
         <v>0.1082</v>
       </c>
       <c r="H57">
-        <v>0.1766</v>
+        <v>0.17660000000000001</v>
       </c>
       <c r="I57">
         <v>0.1961</v>
       </c>
       <c r="K57">
-        <v>0.093</v>
+        <v>0.092999999999999999</v>
       </c>
       <c r="L57">
-        <v>0.3542</v>
+        <v>0.35420000000000001</v>
       </c>
       <c r="M57">
-        <v>0.07199999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>0.071999999999999995</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -2179,31 +2394,31 @@
         <v>76</v>
       </c>
       <c r="C58">
-        <v>0.02</v>
+        <v>0.012</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G58">
-        <v>0.72</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I58">
-        <v>0.26</v>
+        <v>0.064000000000000001</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>0.254</v>
       </c>
       <c r="K58">
-        <v>0</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="N58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>0.075999999999999998</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" s="1">
         <v>1</v>
       </c>
@@ -2211,31 +2426,31 @@
         <v>77</v>
       </c>
       <c r="C59">
-        <v>0.046</v>
+        <v>0.045999999999999999</v>
       </c>
       <c r="D59">
-        <v>0.024</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="G59">
-        <v>0.88</v>
+        <v>0.01</v>
       </c>
       <c r="H59">
-        <v>0.02</v>
+        <v>0.029999999999999999</v>
       </c>
       <c r="I59">
-        <v>0.024</v>
+        <v>0.01</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>0.025999999999999999</v>
       </c>
       <c r="K59">
-        <v>0.002</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="N59">
-        <v>0.004</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>0.36799999999999999</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="1">
         <v>2</v>
       </c>
@@ -2267,7 +2482,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="61" spans="1:21">
+    <row r="61">
       <c r="A61" s="1">
         <v>3</v>
       </c>
@@ -2275,31 +2490,31 @@
         <v>79</v>
       </c>
       <c r="C61">
-        <v>0.1349</v>
+        <v>0.13489999999999999</v>
       </c>
       <c r="D61">
-        <v>0.0678</v>
+        <v>0.067799999999999999</v>
       </c>
       <c r="G61">
-        <v>0.06909999999999999</v>
+        <v>0.069099999999999995</v>
       </c>
       <c r="H61">
-        <v>0.0727</v>
+        <v>0.072700000000000001</v>
       </c>
       <c r="I61">
-        <v>0.0895</v>
+        <v>0.089499999999999996</v>
       </c>
       <c r="J61">
-        <v>0.3442</v>
+        <v>0.34420000000000001</v>
       </c>
       <c r="K61">
-        <v>0.0789</v>
+        <v>0.078899999999999998</v>
       </c>
       <c r="N61">
-        <v>0.143</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>0.14299999999999999</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -2307,25 +2522,25 @@
         <v>80</v>
       </c>
       <c r="D62">
-        <v>0.34</v>
+        <v>0.70999999999999996</v>
       </c>
       <c r="E62">
-        <v>0.488</v>
+        <v>0.059999999999999998</v>
       </c>
       <c r="F62">
-        <v>0.07199999999999999</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="O62">
-        <v>0.056</v>
+        <v>0.021999999999999999</v>
       </c>
       <c r="Q62">
-        <v>0.044</v>
+        <v>0.043999999999999997</v>
       </c>
       <c r="R62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>0.048000000000000001</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" s="1">
         <v>1</v>
       </c>
@@ -2333,25 +2548,25 @@
         <v>81</v>
       </c>
       <c r="D63">
-        <v>0.262</v>
+        <v>0.024</v>
       </c>
       <c r="E63">
-        <v>0.64</v>
+        <v>0.52000000000000002</v>
       </c>
       <c r="F63">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="O63">
-        <v>0.036</v>
+        <v>0.16400000000000001</v>
       </c>
       <c r="Q63">
-        <v>0</v>
+        <v>0.080000000000000002</v>
       </c>
       <c r="R63">
-        <v>0.012</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>0.082000000000000003</v>
+      </c>
+    </row>
+    <row r="64">
       <c r="A64" s="1">
         <v>2</v>
       </c>
@@ -2359,25 +2574,25 @@
         <v>82</v>
       </c>
       <c r="D64">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="E64">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="F64">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="O64">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="Q64">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="R64">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" s="1">
         <v>3</v>
       </c>
@@ -2388,22 +2603,22 @@
         <v>0.1961</v>
       </c>
       <c r="E65">
-        <v>0.093</v>
+        <v>0.092999999999999999</v>
       </c>
       <c r="F65">
-        <v>0.07199999999999999</v>
+        <v>0.071999999999999995</v>
       </c>
       <c r="O65">
         <v>0.1082</v>
       </c>
       <c r="Q65">
-        <v>0.1766</v>
+        <v>0.17660000000000001</v>
       </c>
       <c r="R65">
-        <v>0.3542</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19">
+        <v>0.35420000000000001</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -2411,25 +2626,25 @@
         <v>84</v>
       </c>
       <c r="C66">
-        <v>0.044</v>
+        <v>0.216</v>
       </c>
       <c r="G66">
-        <v>0.88</v>
+        <v>0.01</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="I66">
-        <v>0.002</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="J66">
-        <v>0.048</v>
+        <v>0.01</v>
       </c>
       <c r="N66">
-        <v>0.026</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19">
+        <v>0.064000000000000001</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" s="1">
         <v>1</v>
       </c>
@@ -2437,25 +2652,25 @@
         <v>85</v>
       </c>
       <c r="C67">
-        <v>0.042</v>
+        <v>0.01</v>
       </c>
       <c r="G67">
-        <v>0.838</v>
+        <v>0.23999999999999999</v>
       </c>
       <c r="H67">
-        <v>0.05</v>
+        <v>0.01</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="J67">
-        <v>0.054</v>
+        <v>0.01</v>
       </c>
       <c r="N67">
-        <v>0.016</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19">
+        <v>0.71999999999999997</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" s="1">
         <v>2</v>
       </c>
@@ -2463,25 +2678,25 @@
         <v>86</v>
       </c>
       <c r="C68">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="G68">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="H68">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="I68">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="J68">
-        <v>0.1667</v>
+        <v>0.16669999999999999</v>
       </c>
       <c r="N68">
-        <v>0.1667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19">
+        <v>0.16669999999999999</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" s="1">
         <v>3</v>
       </c>
@@ -2492,22 +2707,22 @@
         <v>0.1709</v>
       </c>
       <c r="G69">
-        <v>0.08749999999999999</v>
+        <v>0.087499999999999994</v>
       </c>
       <c r="H69">
-        <v>0.0921</v>
+        <v>0.092100000000000001</v>
       </c>
       <c r="I69">
         <v>0.1134</v>
       </c>
       <c r="J69">
-        <v>0.4361</v>
+        <v>0.43609999999999999</v>
       </c>
       <c r="N69">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19">
+        <v>0.10000000000000001</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -2515,19 +2730,19 @@
         <v>88</v>
       </c>
       <c r="H70">
-        <v>0.496</v>
+        <v>0.112</v>
       </c>
       <c r="I70">
-        <v>0.096</v>
+        <v>0.16</v>
       </c>
       <c r="R70">
-        <v>0.09</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="S70">
-        <v>0.318</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" s="1">
         <v>1</v>
       </c>
@@ -2535,19 +2750,19 @@
         <v>89</v>
       </c>
       <c r="H71">
-        <v>0.408</v>
+        <v>0.017999999999999999</v>
       </c>
       <c r="I71">
-        <v>0.068</v>
+        <v>0.014</v>
       </c>
       <c r="R71">
-        <v>0.202</v>
+        <v>0.92000000000000004</v>
       </c>
       <c r="S71">
-        <v>0.322</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19">
+        <v>0.048000000000000001</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2567,7 +2782,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73">
       <c r="A73" s="1">
         <v>3</v>
       </c>
@@ -2575,19 +2790,22 @@
         <v>91</v>
       </c>
       <c r="H73">
-        <v>0.1728</v>
+        <v>0.17280000000000001</v>
       </c>
       <c r="I73">
         <v>0.2092</v>
       </c>
       <c r="R73">
-        <v>0.4813</v>
+        <v>0.48130000000000001</v>
       </c>
       <c r="S73">
-        <v>0.1367</v>
+        <v>0.13669999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>